--- a/2024/tmp/CCA Junior League 4 South.xlsx
+++ b/2024/tmp/CCA Junior League 4 South.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105" count="105">
   <si>
     <t>Division</t>
   </si>
@@ -49,16 +49,175 @@
     <t>117767</t>
   </si>
   <si>
+    <t>Abington CC, Cambs - 1st XI</t>
+  </si>
+  <si>
+    <t>29732</t>
+  </si>
+  <si>
+    <t>Thriplow CC - 1st XI</t>
+  </si>
+  <si>
+    <t>51520</t>
+  </si>
+  <si>
+    <t>Abington Cricket Ground</t>
+  </si>
+  <si>
+    <t>13558</t>
+  </si>
+  <si>
+    <t>2024/07/13</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>Fulbourn Institute CC - 1st XI</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2024/06/15</t>
+  </si>
+  <si>
+    <t>Ramsey CC, Hunts - 2nd XI</t>
+  </si>
+  <si>
+    <t>78071</t>
+  </si>
+  <si>
+    <t>2024/08/17</t>
+  </si>
+  <si>
+    <t>Wilburton CC - 1st XI</t>
+  </si>
+  <si>
+    <t>60408</t>
+  </si>
+  <si>
+    <t>2024/08/03</t>
+  </si>
+  <si>
+    <t>Bluntisham CC - 1st XI</t>
+  </si>
+  <si>
+    <t>41728</t>
+  </si>
+  <si>
+    <t>2024/05/18</t>
+  </si>
+  <si>
+    <t>Horseheath CC - 1st XI</t>
+  </si>
+  <si>
+    <t>134360</t>
+  </si>
+  <si>
+    <t>2024/08/24</t>
+  </si>
+  <si>
+    <t>Wisbech Town CC - 2nd XI</t>
+  </si>
+  <si>
+    <t>14510</t>
+  </si>
+  <si>
+    <t>2024/06/08</t>
+  </si>
+  <si>
+    <t>Longstanton Grasshoppers CC - 1st XI</t>
+  </si>
+  <si>
+    <t>12244</t>
+  </si>
+  <si>
+    <t>2024/05/25</t>
+  </si>
+  <si>
     <t>City of Ely CC - 1st XI</t>
   </si>
   <si>
     <t>23142</t>
   </si>
   <si>
-    <t>Wilburton CC - 1st XI</t>
-  </si>
-  <si>
-    <t>60408</t>
+    <t>2024/07/06</t>
+  </si>
+  <si>
+    <t>The Cricket Meadow, Howards Lane</t>
+  </si>
+  <si>
+    <t>2024/08/31</t>
+  </si>
+  <si>
+    <t>2024/05/04</t>
+  </si>
+  <si>
+    <t>2024/06/22</t>
+  </si>
+  <si>
+    <t>2024/07/27</t>
+  </si>
+  <si>
+    <t>2024/05/11</t>
+  </si>
+  <si>
+    <t>The Piece Ground</t>
+  </si>
+  <si>
+    <t>2191</t>
+  </si>
+  <si>
+    <t>2024/06/01</t>
+  </si>
+  <si>
+    <t>2024/06/29</t>
+  </si>
+  <si>
+    <t>2024/07/20</t>
+  </si>
+  <si>
+    <t>2024/08/10</t>
+  </si>
+  <si>
+    <t>Fulbourn Recreation Ground</t>
+  </si>
+  <si>
+    <t>9770</t>
+  </si>
+  <si>
+    <t>The Cricketfield</t>
+  </si>
+  <si>
+    <t>14834</t>
+  </si>
+  <si>
+    <t>Longstanton Recreation Ground</t>
+  </si>
+  <si>
+    <t>12312</t>
+  </si>
+  <si>
+    <t>Thriplow</t>
+  </si>
+  <si>
+    <t>4585</t>
+  </si>
+  <si>
+    <t>Bluntisham Recreation Ground</t>
+  </si>
+  <si>
+    <t>13076</t>
+  </si>
+  <si>
+    <t>Wisbech Town CC</t>
+  </si>
+  <si>
+    <t>11646</t>
+  </si>
+  <si>
+    <t>2024/04/27</t>
   </si>
   <si>
     <t>The Paradise Centre</t>
@@ -67,262 +226,106 @@
     <t>25056</t>
   </si>
   <si>
-    <t>2024/07/06</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>Ramsey CC, Hunts - 2nd XI</t>
-  </si>
-  <si>
-    <t>78071</t>
-  </si>
-  <si>
-    <t>2024/06/15</t>
-  </si>
-  <si>
-    <t>Abington CC, Cambs - 1st XI</t>
-  </si>
-  <si>
-    <t>29732</t>
-  </si>
-  <si>
-    <t>2024/06/29</t>
-  </si>
-  <si>
-    <t>Longstanton Grasshoppers CC - 1st XI</t>
-  </si>
-  <si>
-    <t>12244</t>
-  </si>
-  <si>
-    <t>2024/05/04</t>
-  </si>
-  <si>
-    <t>Fulbourn Institute CC - 1st XI</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2024/07/13</t>
-  </si>
-  <si>
-    <t>Wisbech Town CC - 2nd XI</t>
-  </si>
-  <si>
-    <t>14510</t>
-  </si>
-  <si>
-    <t>2024/06/08</t>
-  </si>
-  <si>
-    <t>Bluntisham CC - 1st XI</t>
-  </si>
-  <si>
-    <t>41728</t>
-  </si>
-  <si>
-    <t>2024/08/24</t>
-  </si>
-  <si>
-    <t>Thriplow CC - 1st XI</t>
-  </si>
-  <si>
-    <t>51520</t>
-  </si>
-  <si>
-    <t>2024/05/25</t>
-  </si>
-  <si>
-    <t>Horseheath CC - 1st XI</t>
-  </si>
-  <si>
-    <t>134360</t>
-  </si>
-  <si>
-    <t>2024/05/18</t>
-  </si>
-  <si>
-    <t>The Cricketfield</t>
-  </si>
-  <si>
-    <t>14834</t>
-  </si>
-  <si>
-    <t>2024/05/11</t>
-  </si>
-  <si>
-    <t>2024/08/10</t>
-  </si>
-  <si>
-    <t>2024/06/22</t>
-  </si>
-  <si>
-    <t>2024/07/20</t>
-  </si>
-  <si>
-    <t>2024/08/03</t>
-  </si>
-  <si>
-    <t>2024/06/01</t>
-  </si>
-  <si>
-    <t>Thriplow</t>
-  </si>
-  <si>
-    <t>4585</t>
-  </si>
-  <si>
-    <t>2024/08/17</t>
-  </si>
-  <si>
-    <t>2024/08/31</t>
-  </si>
-  <si>
-    <t>The Cricket Meadow, Howards Lane</t>
-  </si>
-  <si>
-    <t>2024/07/27</t>
-  </si>
-  <si>
-    <t>Wisbech Town CC</t>
-  </si>
-  <si>
-    <t>11646</t>
-  </si>
-  <si>
-    <t>2024/04/27</t>
-  </si>
-  <si>
-    <t>Abington Cricket Ground</t>
-  </si>
-  <si>
-    <t>13558</t>
-  </si>
-  <si>
-    <t>Longstanton Recreation Ground</t>
-  </si>
-  <si>
-    <t>12312</t>
-  </si>
-  <si>
-    <t>Bluntisham Recreation Ground</t>
-  </si>
-  <si>
-    <t>13076</t>
-  </si>
-  <si>
-    <t>The Piece Ground</t>
-  </si>
-  <si>
-    <t>2191</t>
-  </si>
-  <si>
-    <t>Fulbourn Recreation Ground</t>
-  </si>
-  <si>
-    <t>9770</t>
-  </si>
-  <si>
     <t>CCA Junior League 4 South</t>
   </si>
   <si>
     <t>117812</t>
   </si>
   <si>
+    <t>Abington CC, Cambs - 2nd XI</t>
+  </si>
+  <si>
+    <t>29686</t>
+  </si>
+  <si>
+    <t>Birchanger CC - 2nd XI</t>
+  </si>
+  <si>
+    <t>71201</t>
+  </si>
+  <si>
+    <t>Buntingford CC - 2nd XI</t>
+  </si>
+  <si>
+    <t>134497</t>
+  </si>
+  <si>
+    <t>Cambridge NCI CC - 4th XI</t>
+  </si>
+  <si>
+    <t>56245</t>
+  </si>
+  <si>
+    <t>Newport CC, Essex - 2nd XI</t>
+  </si>
+  <si>
+    <t>48329</t>
+  </si>
+  <si>
+    <t>Linton Village CC - 2nd XI</t>
+  </si>
+  <si>
+    <t>10414</t>
+  </si>
+  <si>
+    <t>Ickleton CC - 2nd XI</t>
+  </si>
+  <si>
+    <t>239150</t>
+  </si>
+  <si>
+    <t>Elmdon CC - 2nd XI</t>
+  </si>
+  <si>
+    <t>51839</t>
+  </si>
+  <si>
     <t>Newton CC, Cambs - 1st XI</t>
   </si>
   <si>
     <t>51240</t>
   </si>
   <si>
-    <t>Buntingford CC - 2nd XI</t>
-  </si>
-  <si>
-    <t>134497</t>
+    <t>Birchanger Sports - Social Club</t>
+  </si>
+  <si>
+    <t>Norfolk Rd Playing Field, Bowling Green</t>
+  </si>
+  <si>
+    <t>Linton Recreation Ground</t>
+  </si>
+  <si>
+    <t>5934</t>
+  </si>
+  <si>
+    <t>2024/09/07</t>
+  </si>
+  <si>
+    <t>Ickleton Jubilee Oval</t>
+  </si>
+  <si>
+    <t>43879</t>
+  </si>
+  <si>
+    <t>The Meadow</t>
+  </si>
+  <si>
+    <t>2714</t>
+  </si>
+  <si>
+    <t>Frambury Lane, Newport</t>
+  </si>
+  <si>
+    <t>Parkers Piece</t>
+  </si>
+  <si>
+    <t>11904</t>
   </si>
   <si>
     <t>Newton CC</t>
   </si>
   <si>
     <t>32992</t>
-  </si>
-  <si>
-    <t>Newport CC, Essex - 2nd XI</t>
-  </si>
-  <si>
-    <t>48329</t>
-  </si>
-  <si>
-    <t>Abington CC, Cambs - 2nd XI</t>
-  </si>
-  <si>
-    <t>29686</t>
-  </si>
-  <si>
-    <t>Elmdon CC - 2nd XI</t>
-  </si>
-  <si>
-    <t>51839</t>
-  </si>
-  <si>
-    <t>Linton Village CC - 2nd XI</t>
-  </si>
-  <si>
-    <t>10414</t>
-  </si>
-  <si>
-    <t>Cambridge NCI CC - 4th XI</t>
-  </si>
-  <si>
-    <t>56245</t>
-  </si>
-  <si>
-    <t>Ickleton CC - 2nd XI</t>
-  </si>
-  <si>
-    <t>239150</t>
-  </si>
-  <si>
-    <t>Birchanger CC - 2nd XI</t>
-  </si>
-  <si>
-    <t>71201</t>
-  </si>
-  <si>
-    <t>Parkers Piece</t>
-  </si>
-  <si>
-    <t>11904</t>
-  </si>
-  <si>
-    <t>Frambury Lane, Newport</t>
-  </si>
-  <si>
-    <t>Birchanger Sports - Social Club</t>
-  </si>
-  <si>
-    <t>The Meadow</t>
-  </si>
-  <si>
-    <t>2714</t>
-  </si>
-  <si>
-    <t>Linton Recreation Ground</t>
-  </si>
-  <si>
-    <t>5934</t>
-  </si>
-  <si>
-    <t>Ickleton Jubilee Oval</t>
-  </si>
-  <si>
-    <t>43879</t>
-  </si>
-  <si>
-    <t>Norfolk Rd Playing Field, Bowling Green</t>
   </si>
 </sst>
 </file>
@@ -652,7 +655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="11" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -660,31 +663,28 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
       </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="12" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -692,31 +692,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>45</v>
       </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="13" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -724,31 +721,28 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="14" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -756,31 +750,28 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
         <v>44</v>
       </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="15" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -788,31 +779,28 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" t="s">
-        <v>45</v>
-      </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="16" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -820,23 +808,20 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
       <c r="I16" t="s">
         <v>48</v>
       </c>
@@ -844,7 +829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="17" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -852,23 +837,20 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
         <v>44</v>
       </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
       <c r="I17" t="s">
         <v>49</v>
       </c>
@@ -876,7 +858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="18" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -884,31 +866,28 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
       </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="19" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -916,10 +895,10 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -930,11 +909,8 @@
       <c r="G19" t="s">
         <v>44</v>
       </c>
-      <c r="H19" t="s">
-        <v>45</v>
-      </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
@@ -948,25 +924,25 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s">
         <v>52</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" t="s">
-        <v>49</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -980,10 +956,10 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -992,13 +968,13 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
         <v>53</v>
-      </c>
-      <c r="I21" t="s">
-        <v>31</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -1012,25 +988,25 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
@@ -1044,25 +1020,25 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -1076,25 +1052,25 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
@@ -1108,25 +1084,25 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>39</v>
       </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
@@ -1140,25 +1116,25 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -1172,25 +1148,25 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -1204,31 +1180,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="29" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1236,10 +1212,10 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -1250,14 +1226,17 @@
       <c r="G29" t="s">
         <v>56</v>
       </c>
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="30" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1265,28 +1244,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>56</v>
       </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
       <c r="I30" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="31" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1294,28 +1276,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
         <v>41</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>42</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
       </c>
       <c r="G31" t="s">
         <v>56</v>
       </c>
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
       <c r="I31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="32" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1323,28 +1308,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
         <v>56</v>
       </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="33" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1352,28 +1340,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>56</v>
       </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="34" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1381,28 +1372,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
         <v>56</v>
       </c>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="35" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1410,28 +1404,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s">
         <v>56</v>
       </c>
+      <c r="H35" t="s">
+        <v>57</v>
+      </c>
       <c r="I35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="36" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1439,28 +1436,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>56</v>
       </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="37" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1468,22 +1468,25 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G37" t="s">
         <v>56</v>
       </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
@@ -1497,16 +1500,16 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
         <v>58</v>
@@ -1515,7 +1518,7 @@
         <v>59</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
@@ -1529,16 +1532,16 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
         <v>58</v>
@@ -1547,7 +1550,7 @@
         <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
@@ -1561,16 +1564,16 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
         <v>58</v>
@@ -1579,7 +1582,7 @@
         <v>59</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
@@ -1593,16 +1596,16 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
         <v>32</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>33</v>
-      </c>
-      <c r="E41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" t="s">
-        <v>39</v>
       </c>
       <c r="G41" t="s">
         <v>58</v>
@@ -1611,7 +1614,7 @@
         <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
@@ -1625,16 +1628,16 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
         <v>58</v>
@@ -1643,7 +1646,7 @@
         <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
@@ -1657,16 +1660,16 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
         <v>58</v>
@@ -1675,7 +1678,7 @@
         <v>59</v>
       </c>
       <c r="I43" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
@@ -1689,16 +1692,16 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
         <v>58</v>
@@ -1707,7 +1710,7 @@
         <v>59</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
@@ -1721,16 +1724,16 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
         <v>58</v>
@@ -1739,7 +1742,7 @@
         <v>59</v>
       </c>
       <c r="I45" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s">
         <v>19</v>
@@ -1753,16 +1756,16 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>58</v>
@@ -1771,7 +1774,7 @@
         <v>59</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
@@ -1785,25 +1788,25 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" t="s">
         <v>61</v>
       </c>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
       <c r="I47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
@@ -1817,10 +1820,10 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s">
         <v>32</v>
@@ -1829,13 +1832,13 @@
         <v>33</v>
       </c>
       <c r="G48" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" t="s">
         <v>61</v>
       </c>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
       <c r="I48" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
@@ -1849,25 +1852,25 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" t="s">
         <v>61</v>
       </c>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
       <c r="I49" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
@@ -1881,10 +1884,10 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
         <v>35</v>
@@ -1893,13 +1896,13 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" t="s">
         <v>61</v>
       </c>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
       <c r="I50" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
@@ -1913,10 +1916,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -1925,13 +1928,13 @@
         <v>13</v>
       </c>
       <c r="G51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" t="s">
         <v>61</v>
       </c>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
@@ -1945,25 +1948,25 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" t="s">
         <v>61</v>
       </c>
-      <c r="H52" t="s">
-        <v>62</v>
-      </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
@@ -1977,25 +1980,25 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" t="s">
         <v>61</v>
       </c>
-      <c r="H53" t="s">
-        <v>62</v>
-      </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J53" t="s">
         <v>19</v>
@@ -2009,25 +2012,25 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G54" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" t="s">
         <v>61</v>
       </c>
-      <c r="H54" t="s">
-        <v>62</v>
-      </c>
       <c r="I54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J54" t="s">
         <v>19</v>
@@ -2041,25 +2044,25 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" t="s">
         <v>23</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>24</v>
       </c>
-      <c r="E55" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" t="s">
-        <v>27</v>
-      </c>
       <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" t="s">
         <v>61</v>
       </c>
-      <c r="H55" t="s">
-        <v>62</v>
-      </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
         <v>19</v>
@@ -2073,25 +2076,25 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" t="s">
         <v>63</v>
       </c>
-      <c r="H56" t="s">
-        <v>64</v>
-      </c>
       <c r="I56" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J56" t="s">
         <v>19</v>
@@ -2105,25 +2108,25 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" t="s">
         <v>63</v>
       </c>
-      <c r="H57" t="s">
-        <v>64</v>
-      </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J57" t="s">
         <v>19</v>
@@ -2137,25 +2140,25 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" t="s">
         <v>63</v>
       </c>
-      <c r="H58" t="s">
-        <v>64</v>
-      </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J58" t="s">
         <v>19</v>
@@ -2169,25 +2172,25 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
         <v>26</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
         <v>27</v>
       </c>
-      <c r="E59" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" t="s">
-        <v>33</v>
-      </c>
       <c r="G59" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" t="s">
         <v>63</v>
       </c>
-      <c r="H59" t="s">
-        <v>64</v>
-      </c>
       <c r="I59" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="J59" t="s">
         <v>19</v>
@@ -2201,25 +2204,25 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" t="s">
         <v>63</v>
       </c>
-      <c r="H60" t="s">
-        <v>64</v>
-      </c>
       <c r="I60" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J60" t="s">
         <v>19</v>
@@ -2233,25 +2236,25 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" t="s">
         <v>63</v>
       </c>
-      <c r="H61" t="s">
-        <v>64</v>
-      </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="J61" t="s">
         <v>19</v>
@@ -2265,10 +2268,10 @@
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
         <v>23</v>
@@ -2277,13 +2280,13 @@
         <v>24</v>
       </c>
       <c r="G62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" t="s">
         <v>63</v>
       </c>
-      <c r="H62" t="s">
-        <v>64</v>
-      </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s">
         <v>19</v>
@@ -2297,25 +2300,25 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
         <v>63</v>
       </c>
-      <c r="H63" t="s">
-        <v>64</v>
-      </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J63" t="s">
         <v>19</v>
@@ -2329,25 +2332,25 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" t="s">
         <v>63</v>
       </c>
-      <c r="H64" t="s">
-        <v>64</v>
-      </c>
       <c r="I64" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s">
         <v>19</v>
@@ -2361,22 +2364,22 @@
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" t="s">
         <v>65</v>
-      </c>
-      <c r="H65" t="s">
-        <v>66</v>
       </c>
       <c r="I65" t="s">
         <v>55</v>
@@ -2393,25 +2396,25 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66" t="s">
         <v>65</v>
       </c>
-      <c r="H66" t="s">
-        <v>66</v>
-      </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J66" t="s">
         <v>19</v>
@@ -2425,25 +2428,25 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
+        <v>64</v>
+      </c>
+      <c r="H67" t="s">
         <v>65</v>
       </c>
-      <c r="H67" t="s">
-        <v>66</v>
-      </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J67" t="s">
         <v>19</v>
@@ -2457,25 +2460,25 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G68" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" t="s">
         <v>65</v>
       </c>
-      <c r="H68" t="s">
-        <v>66</v>
-      </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J68" t="s">
         <v>19</v>
@@ -2489,25 +2492,25 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
+        <v>64</v>
+      </c>
+      <c r="H69" t="s">
         <v>65</v>
       </c>
-      <c r="H69" t="s">
-        <v>66</v>
-      </c>
       <c r="I69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s">
         <v>19</v>
@@ -2521,25 +2524,25 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" t="s">
         <v>35</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>36</v>
       </c>
-      <c r="E70" t="s">
-        <v>23</v>
-      </c>
-      <c r="F70" t="s">
-        <v>24</v>
-      </c>
       <c r="G70" t="s">
+        <v>64</v>
+      </c>
+      <c r="H70" t="s">
         <v>65</v>
       </c>
-      <c r="H70" t="s">
-        <v>66</v>
-      </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J70" t="s">
         <v>19</v>
@@ -2553,25 +2556,25 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G71" t="s">
+        <v>64</v>
+      </c>
+      <c r="H71" t="s">
         <v>65</v>
       </c>
-      <c r="H71" t="s">
-        <v>66</v>
-      </c>
       <c r="I71" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J71" t="s">
         <v>19</v>
@@ -2585,25 +2588,25 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E72" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
+        <v>64</v>
+      </c>
+      <c r="H72" t="s">
         <v>65</v>
       </c>
-      <c r="H72" t="s">
-        <v>66</v>
-      </c>
       <c r="I72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J72" t="s">
         <v>19</v>
@@ -2617,22 +2620,22 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G73" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" t="s">
         <v>65</v>
-      </c>
-      <c r="H73" t="s">
-        <v>66</v>
       </c>
       <c r="I73" t="s">
         <v>46</v>
@@ -2649,25 +2652,25 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G74" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" t="s">
         <v>67</v>
       </c>
-      <c r="H74" t="s">
-        <v>68</v>
-      </c>
       <c r="I74" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J74" t="s">
         <v>19</v>
@@ -2681,25 +2684,25 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E75" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H75" t="s">
         <v>67</v>
       </c>
-      <c r="H75" t="s">
-        <v>68</v>
-      </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J75" t="s">
         <v>19</v>
@@ -2713,25 +2716,25 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G76" t="s">
+        <v>66</v>
+      </c>
+      <c r="H76" t="s">
         <v>67</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>68</v>
-      </c>
-      <c r="I76" t="s">
-        <v>25</v>
       </c>
       <c r="J76" t="s">
         <v>19</v>
@@ -2745,25 +2748,25 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
+        <v>66</v>
+      </c>
+      <c r="H77" t="s">
         <v>67</v>
       </c>
-      <c r="H77" t="s">
-        <v>68</v>
-      </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J77" t="s">
         <v>19</v>
@@ -2777,25 +2780,25 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E78" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G78" t="s">
+        <v>66</v>
+      </c>
+      <c r="H78" t="s">
         <v>67</v>
       </c>
-      <c r="H78" t="s">
-        <v>68</v>
-      </c>
       <c r="I78" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J78" t="s">
         <v>19</v>
@@ -2809,22 +2812,22 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
+        <v>66</v>
+      </c>
+      <c r="H79" t="s">
         <v>67</v>
-      </c>
-      <c r="H79" t="s">
-        <v>68</v>
       </c>
       <c r="I79" t="s">
         <v>55</v>
@@ -2841,10 +2844,10 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -2853,13 +2856,13 @@
         <v>30</v>
       </c>
       <c r="G80" t="s">
+        <v>66</v>
+      </c>
+      <c r="H80" t="s">
         <v>67</v>
       </c>
-      <c r="H80" t="s">
-        <v>68</v>
-      </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J80" t="s">
         <v>19</v>
@@ -2873,25 +2876,25 @@
         <v>11</v>
       </c>
       <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" t="s">
         <v>14</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
         <v>15</v>
       </c>
-      <c r="E81" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" t="s">
-        <v>33</v>
-      </c>
       <c r="G81" t="s">
+        <v>66</v>
+      </c>
+      <c r="H81" t="s">
         <v>67</v>
       </c>
-      <c r="H81" t="s">
-        <v>68</v>
-      </c>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J81" t="s">
         <v>19</v>
@@ -2905,25 +2908,25 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
+        <v>66</v>
+      </c>
+      <c r="H82" t="s">
         <v>67</v>
       </c>
-      <c r="H82" t="s">
-        <v>68</v>
-      </c>
       <c r="I82" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J82" t="s">
         <v>19</v>
@@ -2937,16 +2940,16 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E83" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G83" t="s">
         <v>69</v>
@@ -2955,7 +2958,7 @@
         <v>70</v>
       </c>
       <c r="I83" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J83" t="s">
         <v>19</v>
@@ -2969,16 +2972,16 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G84" t="s">
         <v>69</v>
@@ -2987,7 +2990,7 @@
         <v>70</v>
       </c>
       <c r="I84" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="J84" t="s">
         <v>19</v>
@@ -3001,16 +3004,16 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
         <v>69</v>
@@ -3019,7 +3022,7 @@
         <v>70</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J85" t="s">
         <v>19</v>
@@ -3033,16 +3036,16 @@
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
         <v>69</v>
@@ -3051,7 +3054,7 @@
         <v>70</v>
       </c>
       <c r="I86" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J86" t="s">
         <v>19</v>
@@ -3065,16 +3068,16 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" t="s">
         <v>29</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
         <v>30</v>
-      </c>
-      <c r="E87" t="s">
-        <v>32</v>
-      </c>
-      <c r="F87" t="s">
-        <v>33</v>
       </c>
       <c r="G87" t="s">
         <v>69</v>
@@ -3083,7 +3086,7 @@
         <v>70</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J87" t="s">
         <v>19</v>
@@ -3097,16 +3100,16 @@
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
         <v>69</v>
@@ -3115,7 +3118,7 @@
         <v>70</v>
       </c>
       <c r="I88" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J88" t="s">
         <v>19</v>
@@ -3129,10 +3132,10 @@
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D89" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E89" t="s">
         <v>35</v>
@@ -3147,7 +3150,7 @@
         <v>70</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J89" t="s">
         <v>19</v>
@@ -3161,16 +3164,16 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G90" t="s">
         <v>69</v>
@@ -3179,7 +3182,7 @@
         <v>70</v>
       </c>
       <c r="I90" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J90" t="s">
         <v>19</v>
@@ -3193,16 +3196,16 @@
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
         <v>69</v>
@@ -3211,7 +3214,7 @@
         <v>70</v>
       </c>
       <c r="I91" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J91" t="s">
         <v>19</v>
@@ -3237,13 +3240,13 @@
         <v>76</v>
       </c>
       <c r="G92" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="H92" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J92" t="s">
         <v>19</v>
@@ -3263,19 +3266,19 @@
         <v>74</v>
       </c>
       <c r="E93" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F93" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="H93" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J93" t="s">
         <v>19</v>
@@ -3295,19 +3298,19 @@
         <v>74</v>
       </c>
       <c r="E94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F94" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G94" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="H94" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I94" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J94" t="s">
         <v>19</v>
@@ -3327,19 +3330,19 @@
         <v>74</v>
       </c>
       <c r="E95" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F95" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G95" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="H95" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
@@ -3359,19 +3362,19 @@
         <v>74</v>
       </c>
       <c r="E96" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F96" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G96" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="H96" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I96" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
@@ -3391,19 +3394,19 @@
         <v>74</v>
       </c>
       <c r="E97" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F97" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G97" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="H97" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J97" t="s">
         <v>19</v>
@@ -3423,19 +3426,19 @@
         <v>74</v>
       </c>
       <c r="E98" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F98" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="H98" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I98" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
@@ -3455,89 +3458,83 @@
         <v>74</v>
       </c>
       <c r="E99" t="s">
+        <v>89</v>
+      </c>
+      <c r="F99" t="s">
+        <v>90</v>
+      </c>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s">
+        <v>54</v>
+      </c>
+      <c r="J99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A100" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" t="s">
+        <v>75</v>
+      </c>
+      <c r="D100" t="s">
+        <v>76</v>
+      </c>
+      <c r="E100" t="s">
+        <v>79</v>
+      </c>
+      <c r="F100" t="s">
+        <v>80</v>
+      </c>
+      <c r="G100" t="s">
         <v>91</v>
       </c>
-      <c r="F99" t="s">
-        <v>92</v>
-      </c>
-      <c r="G99" t="s">
-        <v>77</v>
-      </c>
-      <c r="H99" t="s">
-        <v>78</v>
-      </c>
-      <c r="I99" t="s">
-        <v>37</v>
-      </c>
-      <c r="J99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A100" t="s">
-        <v>71</v>
-      </c>
-      <c r="B100" t="s">
-        <v>72</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="I100" t="s">
+        <v>34</v>
+      </c>
+      <c r="J100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101" t="s">
+        <v>76</v>
+      </c>
+      <c r="E101" t="s">
         <v>87</v>
       </c>
-      <c r="D100" t="s">
+      <c r="F101" t="s">
         <v>88</v>
       </c>
-      <c r="E100" t="s">
-        <v>85</v>
-      </c>
-      <c r="F100" t="s">
-        <v>86</v>
-      </c>
-      <c r="G100" t="s">
-        <v>93</v>
-      </c>
-      <c r="H100" t="s">
-        <v>94</v>
-      </c>
-      <c r="I100" t="s">
-        <v>25</v>
-      </c>
-      <c r="J100" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A101" t="s">
-        <v>71</v>
-      </c>
-      <c r="B101" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" t="s">
-        <v>88</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="G101" t="s">
         <v>91</v>
       </c>
-      <c r="F101" t="s">
-        <v>92</v>
-      </c>
-      <c r="G101" t="s">
-        <v>93</v>
-      </c>
-      <c r="H101" t="s">
-        <v>94</v>
-      </c>
       <c r="I101" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J101" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="102" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A102" t="s">
         <v>71</v>
       </c>
@@ -3545,10 +3542,10 @@
         <v>72</v>
       </c>
       <c r="C102" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D102" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E102" t="s">
         <v>89</v>
@@ -3557,170 +3554,152 @@
         <v>90</v>
       </c>
       <c r="G102" t="s">
-        <v>93</v>
-      </c>
-      <c r="H102" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I102" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A103" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E103" t="s">
+        <v>85</v>
+      </c>
+      <c r="F103" t="s">
+        <v>86</v>
+      </c>
+      <c r="G103" t="s">
+        <v>91</v>
+      </c>
+      <c r="I103" t="s">
+        <v>45</v>
+      </c>
+      <c r="J103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A104" t="s">
+        <v>71</v>
+      </c>
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D104" t="s">
+        <v>76</v>
+      </c>
+      <c r="E104" t="s">
+        <v>77</v>
+      </c>
+      <c r="F104" t="s">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s">
+        <v>91</v>
+      </c>
+      <c r="I104" t="s">
+        <v>40</v>
+      </c>
+      <c r="J104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A105" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" t="s">
+        <v>81</v>
+      </c>
+      <c r="F105" t="s">
+        <v>82</v>
+      </c>
+      <c r="G105" t="s">
+        <v>91</v>
+      </c>
+      <c r="I105" t="s">
+        <v>46</v>
+      </c>
+      <c r="J105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A106" t="s">
+        <v>71</v>
+      </c>
+      <c r="B106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D106" t="s">
+        <v>76</v>
+      </c>
+      <c r="E106" t="s">
+        <v>73</v>
+      </c>
+      <c r="F106" t="s">
+        <v>74</v>
+      </c>
+      <c r="G106" t="s">
+        <v>91</v>
+      </c>
+      <c r="I106" t="s">
         <v>28</v>
       </c>
-      <c r="J102" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A103" t="s">
-        <v>71</v>
-      </c>
-      <c r="B103" t="s">
-        <v>72</v>
-      </c>
-      <c r="C103" t="s">
-        <v>87</v>
-      </c>
-      <c r="D103" t="s">
-        <v>88</v>
-      </c>
-      <c r="E103" t="s">
-        <v>81</v>
-      </c>
-      <c r="F103" t="s">
-        <v>82</v>
-      </c>
-      <c r="G103" t="s">
-        <v>93</v>
-      </c>
-      <c r="H103" t="s">
-        <v>94</v>
-      </c>
-      <c r="I103" t="s">
-        <v>57</v>
-      </c>
-      <c r="J103" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A104" t="s">
-        <v>71</v>
-      </c>
-      <c r="B104" t="s">
-        <v>72</v>
-      </c>
-      <c r="C104" t="s">
-        <v>87</v>
-      </c>
-      <c r="D104" t="s">
-        <v>88</v>
-      </c>
-      <c r="E104" t="s">
-        <v>73</v>
-      </c>
-      <c r="F104" t="s">
-        <v>74</v>
-      </c>
-      <c r="G104" t="s">
-        <v>93</v>
-      </c>
-      <c r="H104" t="s">
-        <v>94</v>
-      </c>
-      <c r="I104" t="s">
-        <v>18</v>
-      </c>
-      <c r="J104" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A105" t="s">
-        <v>71</v>
-      </c>
-      <c r="B105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" t="s">
-        <v>88</v>
-      </c>
-      <c r="E105" t="s">
-        <v>79</v>
-      </c>
-      <c r="F105" t="s">
-        <v>80</v>
-      </c>
-      <c r="G105" t="s">
-        <v>93</v>
-      </c>
-      <c r="H105" t="s">
-        <v>94</v>
-      </c>
-      <c r="I105" t="s">
-        <v>49</v>
-      </c>
-      <c r="J105" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A106" t="s">
-        <v>71</v>
-      </c>
-      <c r="B106" t="s">
-        <v>72</v>
-      </c>
-      <c r="C106" t="s">
-        <v>87</v>
-      </c>
-      <c r="D106" t="s">
-        <v>88</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="J106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A107" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" t="s">
+        <v>75</v>
+      </c>
+      <c r="D107" t="s">
+        <v>76</v>
+      </c>
+      <c r="E107" t="s">
         <v>83</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F107" t="s">
         <v>84</v>
       </c>
-      <c r="G106" t="s">
-        <v>93</v>
-      </c>
-      <c r="H106" t="s">
-        <v>94</v>
-      </c>
-      <c r="I106" t="s">
-        <v>31</v>
-      </c>
-      <c r="J106" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A107" t="s">
-        <v>71</v>
-      </c>
-      <c r="B107" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" t="s">
-        <v>87</v>
-      </c>
-      <c r="D107" t="s">
-        <v>88</v>
-      </c>
-      <c r="E107" t="s">
-        <v>75</v>
-      </c>
-      <c r="F107" t="s">
-        <v>76</v>
-      </c>
       <c r="G107" t="s">
-        <v>93</v>
-      </c>
-      <c r="H107" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I107" t="s">
         <v>43</v>
@@ -3737,22 +3716,22 @@
         <v>72</v>
       </c>
       <c r="C108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D108" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E108" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F108" t="s">
+        <v>88</v>
+      </c>
+      <c r="G108" t="s">
         <v>92</v>
       </c>
-      <c r="G108" t="s">
-        <v>95</v>
-      </c>
       <c r="I108" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J108" t="s">
         <v>19</v>
@@ -3766,22 +3745,22 @@
         <v>72</v>
       </c>
       <c r="C109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D109" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E109" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F109" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G109" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I109" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J109" t="s">
         <v>19</v>
@@ -3795,22 +3774,22 @@
         <v>72</v>
       </c>
       <c r="C110" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D110" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E110" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F110" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G110" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I110" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J110" t="s">
         <v>19</v>
@@ -3824,22 +3803,22 @@
         <v>72</v>
       </c>
       <c r="C111" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D111" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E111" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F111" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G111" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I111" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J111" t="s">
         <v>19</v>
@@ -3853,22 +3832,22 @@
         <v>72</v>
       </c>
       <c r="C112" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D112" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E112" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F112" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G112" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I112" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J112" t="s">
         <v>19</v>
@@ -3882,22 +3861,22 @@
         <v>72</v>
       </c>
       <c r="C113" t="s">
+        <v>77</v>
+      </c>
+      <c r="D113" t="s">
+        <v>78</v>
+      </c>
+      <c r="E113" t="s">
         <v>79</v>
       </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
         <v>80</v>
       </c>
-      <c r="E113" t="s">
-        <v>87</v>
-      </c>
-      <c r="F113" t="s">
-        <v>88</v>
-      </c>
       <c r="G113" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I113" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J113" t="s">
         <v>19</v>
@@ -3911,22 +3890,22 @@
         <v>72</v>
       </c>
       <c r="C114" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D114" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E114" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F114" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G114" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I114" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J114" t="s">
         <v>19</v>
@@ -3940,39 +3919,39 @@
         <v>72</v>
       </c>
       <c r="C115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D115" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E115" t="s">
+        <v>89</v>
+      </c>
+      <c r="F115" t="s">
+        <v>90</v>
+      </c>
+      <c r="G115" t="s">
+        <v>92</v>
+      </c>
+      <c r="I115" t="s">
+        <v>45</v>
+      </c>
+      <c r="J115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A116" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C116" t="s">
         <v>83</v>
       </c>
-      <c r="F115" t="s">
+      <c r="D116" t="s">
         <v>84</v>
-      </c>
-      <c r="G115" t="s">
-        <v>95</v>
-      </c>
-      <c r="I115" t="s">
-        <v>57</v>
-      </c>
-      <c r="J115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A116" t="s">
-        <v>71</v>
-      </c>
-      <c r="B116" t="s">
-        <v>72</v>
-      </c>
-      <c r="C116" t="s">
-        <v>91</v>
-      </c>
-      <c r="D116" t="s">
-        <v>92</v>
       </c>
       <c r="E116" t="s">
         <v>75</v>
@@ -3981,16 +3960,19 @@
         <v>76</v>
       </c>
       <c r="G116" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="H116" t="s">
+        <v>94</v>
       </c>
       <c r="I116" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="J116" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="117" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="117" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A117" t="s">
         <v>71</v>
       </c>
@@ -3998,193 +3980,214 @@
         <v>72</v>
       </c>
       <c r="C117" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D117" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E117" t="s">
+        <v>81</v>
+      </c>
+      <c r="F117" t="s">
+        <v>82</v>
+      </c>
+      <c r="G117" t="s">
+        <v>93</v>
+      </c>
+      <c r="H117" t="s">
+        <v>94</v>
+      </c>
+      <c r="I117" t="s">
+        <v>18</v>
+      </c>
+      <c r="J117" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A118" t="s">
+        <v>71</v>
+      </c>
+      <c r="B118" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118" t="s">
         <v>83</v>
       </c>
-      <c r="F117" t="s">
+      <c r="D118" t="s">
         <v>84</v>
       </c>
-      <c r="G117" t="s">
-        <v>96</v>
-      </c>
-      <c r="I117" t="s">
-        <v>47</v>
-      </c>
-      <c r="J117" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A118" t="s">
-        <v>71</v>
-      </c>
-      <c r="B118" t="s">
-        <v>72</v>
-      </c>
-      <c r="C118" t="s">
-        <v>91</v>
-      </c>
-      <c r="D118" t="s">
-        <v>92</v>
-      </c>
       <c r="E118" t="s">
+        <v>89</v>
+      </c>
+      <c r="F118" t="s">
+        <v>90</v>
+      </c>
+      <c r="G118" t="s">
+        <v>93</v>
+      </c>
+      <c r="H118" t="s">
+        <v>94</v>
+      </c>
+      <c r="I118" t="s">
+        <v>31</v>
+      </c>
+      <c r="J118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A119" t="s">
+        <v>71</v>
+      </c>
+      <c r="B119" t="s">
+        <v>72</v>
+      </c>
+      <c r="C119" t="s">
+        <v>83</v>
+      </c>
+      <c r="D119" t="s">
+        <v>84</v>
+      </c>
+      <c r="E119" t="s">
+        <v>85</v>
+      </c>
+      <c r="F119" t="s">
+        <v>86</v>
+      </c>
+      <c r="G119" t="s">
+        <v>93</v>
+      </c>
+      <c r="H119" t="s">
+        <v>94</v>
+      </c>
+      <c r="I119" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A120" t="s">
+        <v>71</v>
+      </c>
+      <c r="B120" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120" t="s">
+        <v>83</v>
+      </c>
+      <c r="D120" t="s">
+        <v>84</v>
+      </c>
+      <c r="E120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F120" t="s">
+        <v>74</v>
+      </c>
+      <c r="G120" t="s">
+        <v>93</v>
+      </c>
+      <c r="H120" t="s">
+        <v>94</v>
+      </c>
+      <c r="I120" t="s">
+        <v>37</v>
+      </c>
+      <c r="J120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A121" t="s">
+        <v>71</v>
+      </c>
+      <c r="B121" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" t="s">
+        <v>83</v>
+      </c>
+      <c r="D121" t="s">
+        <v>84</v>
+      </c>
+      <c r="E121" t="s">
+        <v>87</v>
+      </c>
+      <c r="F121" t="s">
+        <v>88</v>
+      </c>
+      <c r="G121" t="s">
+        <v>93</v>
+      </c>
+      <c r="H121" t="s">
+        <v>94</v>
+      </c>
+      <c r="I121" t="s">
+        <v>34</v>
+      </c>
+      <c r="J121" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A122" t="s">
+        <v>71</v>
+      </c>
+      <c r="B122" t="s">
+        <v>72</v>
+      </c>
+      <c r="C122" t="s">
+        <v>83</v>
+      </c>
+      <c r="D122" t="s">
+        <v>84</v>
+      </c>
+      <c r="E122" t="s">
+        <v>77</v>
+      </c>
+      <c r="F122" t="s">
+        <v>78</v>
+      </c>
+      <c r="G122" t="s">
+        <v>93</v>
+      </c>
+      <c r="H122" t="s">
+        <v>94</v>
+      </c>
+      <c r="I122" t="s">
+        <v>53</v>
+      </c>
+      <c r="J122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A123" t="s">
+        <v>71</v>
+      </c>
+      <c r="B123" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123" t="s">
+        <v>83</v>
+      </c>
+      <c r="D123" t="s">
+        <v>84</v>
+      </c>
+      <c r="E123" t="s">
         <v>79</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F123" t="s">
         <v>80</v>
       </c>
-      <c r="G118" t="s">
-        <v>96</v>
-      </c>
-      <c r="I118" t="s">
-        <v>18</v>
-      </c>
-      <c r="J118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A119" t="s">
-        <v>71</v>
-      </c>
-      <c r="B119" t="s">
-        <v>72</v>
-      </c>
-      <c r="C119" t="s">
-        <v>91</v>
-      </c>
-      <c r="D119" t="s">
-        <v>92</v>
-      </c>
-      <c r="E119" t="s">
-        <v>81</v>
-      </c>
-      <c r="F119" t="s">
-        <v>82</v>
-      </c>
-      <c r="G119" t="s">
-        <v>96</v>
-      </c>
-      <c r="I119" t="s">
-        <v>34</v>
-      </c>
-      <c r="J119" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A120" t="s">
-        <v>71</v>
-      </c>
-      <c r="B120" t="s">
-        <v>72</v>
-      </c>
-      <c r="C120" t="s">
-        <v>91</v>
-      </c>
-      <c r="D120" t="s">
-        <v>92</v>
-      </c>
-      <c r="E120" t="s">
-        <v>87</v>
-      </c>
-      <c r="F120" t="s">
-        <v>88</v>
-      </c>
-      <c r="G120" t="s">
-        <v>96</v>
-      </c>
-      <c r="I120" t="s">
-        <v>51</v>
-      </c>
-      <c r="J120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A121" t="s">
-        <v>71</v>
-      </c>
-      <c r="B121" t="s">
-        <v>72</v>
-      </c>
-      <c r="C121" t="s">
-        <v>91</v>
-      </c>
-      <c r="D121" t="s">
-        <v>92</v>
-      </c>
-      <c r="E121" t="s">
-        <v>73</v>
-      </c>
-      <c r="F121" t="s">
-        <v>74</v>
-      </c>
-      <c r="G121" t="s">
-        <v>96</v>
-      </c>
-      <c r="I121" t="s">
-        <v>25</v>
-      </c>
-      <c r="J121" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A122" t="s">
-        <v>71</v>
-      </c>
-      <c r="B122" t="s">
-        <v>72</v>
-      </c>
-      <c r="C122" t="s">
-        <v>91</v>
-      </c>
-      <c r="D122" t="s">
-        <v>92</v>
-      </c>
-      <c r="E122" t="s">
-        <v>85</v>
-      </c>
-      <c r="F122" t="s">
-        <v>86</v>
-      </c>
-      <c r="G122" t="s">
-        <v>96</v>
-      </c>
-      <c r="I122" t="s">
-        <v>22</v>
-      </c>
-      <c r="J122" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A123" t="s">
-        <v>71</v>
-      </c>
-      <c r="B123" t="s">
-        <v>72</v>
-      </c>
-      <c r="C123" t="s">
-        <v>91</v>
-      </c>
-      <c r="D123" t="s">
-        <v>92</v>
-      </c>
-      <c r="E123" t="s">
-        <v>89</v>
-      </c>
-      <c r="F123" t="s">
-        <v>90</v>
-      </c>
       <c r="G123" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="H123" t="s">
+        <v>94</v>
       </c>
       <c r="I123" t="s">
         <v>48</v>
@@ -4201,10 +4204,10 @@
         <v>72</v>
       </c>
       <c r="C124" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D124" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E124" t="s">
         <v>75</v>
@@ -4213,13 +4216,13 @@
         <v>76</v>
       </c>
       <c r="G124" t="s">
+        <v>96</v>
+      </c>
+      <c r="H124" t="s">
         <v>97</v>
       </c>
-      <c r="H124" t="s">
-        <v>98</v>
-      </c>
       <c r="I124" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J124" t="s">
         <v>19</v>
@@ -4233,25 +4236,25 @@
         <v>72</v>
       </c>
       <c r="C125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E125" t="s">
         <v>83</v>
       </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
         <v>84</v>
       </c>
-      <c r="E125" t="s">
-        <v>89</v>
-      </c>
-      <c r="F125" t="s">
-        <v>90</v>
-      </c>
       <c r="G125" t="s">
+        <v>96</v>
+      </c>
+      <c r="H125" t="s">
         <v>97</v>
       </c>
-      <c r="H125" t="s">
-        <v>98</v>
-      </c>
       <c r="I125" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J125" t="s">
         <v>19</v>
@@ -4265,25 +4268,25 @@
         <v>72</v>
       </c>
       <c r="C126" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D126" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E126" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F126" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G126" t="s">
+        <v>96</v>
+      </c>
+      <c r="H126" t="s">
         <v>97</v>
       </c>
-      <c r="H126" t="s">
-        <v>98</v>
-      </c>
       <c r="I126" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J126" t="s">
         <v>19</v>
@@ -4297,25 +4300,25 @@
         <v>72</v>
       </c>
       <c r="C127" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D127" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E127" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F127" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G127" t="s">
+        <v>96</v>
+      </c>
+      <c r="H127" t="s">
         <v>97</v>
       </c>
-      <c r="H127" t="s">
-        <v>98</v>
-      </c>
       <c r="I127" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J127" t="s">
         <v>19</v>
@@ -4329,25 +4332,25 @@
         <v>72</v>
       </c>
       <c r="C128" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D128" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E128" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F128" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G128" t="s">
+        <v>96</v>
+      </c>
+      <c r="H128" t="s">
         <v>97</v>
       </c>
-      <c r="H128" t="s">
-        <v>98</v>
-      </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J128" t="s">
         <v>19</v>
@@ -4361,10 +4364,10 @@
         <v>72</v>
       </c>
       <c r="C129" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D129" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E129" t="s">
         <v>87</v>
@@ -4373,13 +4376,13 @@
         <v>88</v>
       </c>
       <c r="G129" t="s">
+        <v>96</v>
+      </c>
+      <c r="H129" t="s">
         <v>97</v>
       </c>
-      <c r="H129" t="s">
-        <v>98</v>
-      </c>
       <c r="I129" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J129" t="s">
         <v>19</v>
@@ -4393,25 +4396,25 @@
         <v>72</v>
       </c>
       <c r="C130" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D130" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E130" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F130" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G130" t="s">
+        <v>96</v>
+      </c>
+      <c r="H130" t="s">
         <v>97</v>
       </c>
-      <c r="H130" t="s">
-        <v>98</v>
-      </c>
       <c r="I130" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J130" t="s">
         <v>19</v>
@@ -4425,25 +4428,25 @@
         <v>72</v>
       </c>
       <c r="C131" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D131" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E131" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F131" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G131" t="s">
+        <v>96</v>
+      </c>
+      <c r="H131" t="s">
         <v>97</v>
       </c>
-      <c r="H131" t="s">
-        <v>98</v>
-      </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J131" t="s">
         <v>19</v>
@@ -4457,25 +4460,25 @@
         <v>72</v>
       </c>
       <c r="C132" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D132" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E132" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F132" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G132" t="s">
+        <v>98</v>
+      </c>
+      <c r="H132" t="s">
         <v>99</v>
       </c>
-      <c r="H132" t="s">
-        <v>100</v>
-      </c>
       <c r="I132" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J132" t="s">
         <v>19</v>
@@ -4489,25 +4492,25 @@
         <v>72</v>
       </c>
       <c r="C133" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D133" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E133" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F133" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G133" t="s">
+        <v>98</v>
+      </c>
+      <c r="H133" t="s">
         <v>99</v>
       </c>
-      <c r="H133" t="s">
-        <v>100</v>
-      </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J133" t="s">
         <v>19</v>
@@ -4521,25 +4524,25 @@
         <v>72</v>
       </c>
       <c r="C134" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D134" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E134" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F134" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G134" t="s">
+        <v>98</v>
+      </c>
+      <c r="H134" t="s">
         <v>99</v>
       </c>
-      <c r="H134" t="s">
-        <v>100</v>
-      </c>
       <c r="I134" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J134" t="s">
         <v>19</v>
@@ -4553,25 +4556,25 @@
         <v>72</v>
       </c>
       <c r="C135" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D135" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E135" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F135" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G135" t="s">
+        <v>98</v>
+      </c>
+      <c r="H135" t="s">
         <v>99</v>
       </c>
-      <c r="H135" t="s">
-        <v>100</v>
-      </c>
       <c r="I135" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J135" t="s">
         <v>19</v>
@@ -4585,25 +4588,25 @@
         <v>72</v>
       </c>
       <c r="C136" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D136" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E136" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F136" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G136" t="s">
+        <v>98</v>
+      </c>
+      <c r="H136" t="s">
         <v>99</v>
       </c>
-      <c r="H136" t="s">
-        <v>100</v>
-      </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J136" t="s">
         <v>19</v>
@@ -4617,22 +4620,22 @@
         <v>72</v>
       </c>
       <c r="C137" t="s">
+        <v>87</v>
+      </c>
+      <c r="D137" t="s">
+        <v>88</v>
+      </c>
+      <c r="E137" t="s">
         <v>85</v>
       </c>
-      <c r="D137" t="s">
+      <c r="F137" t="s">
         <v>86</v>
       </c>
-      <c r="E137" t="s">
-        <v>81</v>
-      </c>
-      <c r="F137" t="s">
-        <v>82</v>
-      </c>
       <c r="G137" t="s">
+        <v>98</v>
+      </c>
+      <c r="H137" t="s">
         <v>99</v>
-      </c>
-      <c r="H137" t="s">
-        <v>100</v>
       </c>
       <c r="I137" t="s">
         <v>55</v>
@@ -4649,25 +4652,25 @@
         <v>72</v>
       </c>
       <c r="C138" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D138" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E138" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F138" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="G138" t="s">
+        <v>98</v>
+      </c>
+      <c r="H138" t="s">
         <v>99</v>
       </c>
-      <c r="H138" t="s">
-        <v>100</v>
-      </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J138" t="s">
         <v>19</v>
@@ -4681,31 +4684,31 @@
         <v>72</v>
       </c>
       <c r="C139" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D139" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E139" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F139" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G139" t="s">
+        <v>98</v>
+      </c>
+      <c r="H139" t="s">
         <v>99</v>
       </c>
-      <c r="H139" t="s">
-        <v>100</v>
-      </c>
       <c r="I139" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="J139" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="140" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="140" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A140" t="s">
         <v>71</v>
       </c>
@@ -4713,10 +4716,10 @@
         <v>72</v>
       </c>
       <c r="C140" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D140" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E140" t="s">
         <v>87</v>
@@ -4725,19 +4728,16 @@
         <v>88</v>
       </c>
       <c r="G140" t="s">
-        <v>101</v>
-      </c>
-      <c r="H140" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I140" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J140" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="141" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="141" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A141" t="s">
         <v>71</v>
       </c>
@@ -4745,63 +4745,57 @@
         <v>72</v>
       </c>
       <c r="C141" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D141" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E141" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141" t="s">
+        <v>80</v>
+      </c>
+      <c r="G141" t="s">
+        <v>100</v>
+      </c>
+      <c r="I141" t="s">
+        <v>28</v>
+      </c>
+      <c r="J141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A142" t="s">
+        <v>71</v>
+      </c>
+      <c r="B142" t="s">
+        <v>72</v>
+      </c>
+      <c r="C142" t="s">
+        <v>81</v>
+      </c>
+      <c r="D142" t="s">
+        <v>82</v>
+      </c>
+      <c r="E142" t="s">
         <v>73</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F142" t="s">
         <v>74</v>
       </c>
-      <c r="G141" t="s">
-        <v>101</v>
-      </c>
-      <c r="H141" t="s">
-        <v>102</v>
-      </c>
-      <c r="I141" t="s">
-        <v>51</v>
-      </c>
-      <c r="J141" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A142" t="s">
-        <v>71</v>
-      </c>
-      <c r="B142" t="s">
-        <v>72</v>
-      </c>
-      <c r="C142" t="s">
-        <v>89</v>
-      </c>
-      <c r="D142" t="s">
-        <v>90</v>
-      </c>
-      <c r="E142" t="s">
-        <v>79</v>
-      </c>
-      <c r="F142" t="s">
-        <v>80</v>
-      </c>
       <c r="G142" t="s">
-        <v>101</v>
-      </c>
-      <c r="H142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J142" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="143" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="143" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A143" t="s">
         <v>71</v>
       </c>
@@ -4809,31 +4803,28 @@
         <v>72</v>
       </c>
       <c r="C143" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D143" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E143" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F143" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G143" t="s">
-        <v>101</v>
-      </c>
-      <c r="H143" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I143" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="J143" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="144" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="144" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A144" t="s">
         <v>71</v>
       </c>
@@ -4841,10 +4832,10 @@
         <v>72</v>
       </c>
       <c r="C144" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D144" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E144" t="s">
         <v>85</v>
@@ -4853,19 +4844,16 @@
         <v>86</v>
       </c>
       <c r="G144" t="s">
-        <v>101</v>
-      </c>
-      <c r="H144" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I144" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="J144" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="145" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="145" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A145" t="s">
         <v>71</v>
       </c>
@@ -4873,31 +4861,28 @@
         <v>72</v>
       </c>
       <c r="C145" t="s">
+        <v>81</v>
+      </c>
+      <c r="D145" t="s">
+        <v>82</v>
+      </c>
+      <c r="E145" t="s">
         <v>89</v>
       </c>
-      <c r="D145" t="s">
+      <c r="F145" t="s">
         <v>90</v>
       </c>
-      <c r="E145" t="s">
-        <v>75</v>
-      </c>
-      <c r="F145" t="s">
-        <v>76</v>
-      </c>
       <c r="G145" t="s">
-        <v>101</v>
-      </c>
-      <c r="H145" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I145" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J145" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="146" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="146" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A146" t="s">
         <v>71</v>
       </c>
@@ -4905,54 +4890,48 @@
         <v>72</v>
       </c>
       <c r="C146" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D146" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E146" t="s">
+        <v>83</v>
+      </c>
+      <c r="F146" t="s">
+        <v>84</v>
+      </c>
+      <c r="G146" t="s">
+        <v>100</v>
+      </c>
+      <c r="I146" t="s">
+        <v>49</v>
+      </c>
+      <c r="J146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" x14ac:dyDescent="0.25" spans="1:9">
+      <c r="A147" t="s">
+        <v>71</v>
+      </c>
+      <c r="B147" t="s">
+        <v>72</v>
+      </c>
+      <c r="C147" t="s">
         <v>81</v>
       </c>
-      <c r="F146" t="s">
+      <c r="D147" t="s">
         <v>82</v>
       </c>
-      <c r="G146" t="s">
-        <v>101</v>
-      </c>
-      <c r="H146" t="s">
-        <v>102</v>
-      </c>
-      <c r="I146" t="s">
-        <v>18</v>
-      </c>
-      <c r="J146" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" x14ac:dyDescent="0.25" spans="1:10">
-      <c r="A147" t="s">
-        <v>71</v>
-      </c>
-      <c r="B147" t="s">
-        <v>72</v>
-      </c>
-      <c r="C147" t="s">
-        <v>89</v>
-      </c>
-      <c r="D147" t="s">
-        <v>90</v>
-      </c>
       <c r="E147" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F147" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G147" t="s">
-        <v>101</v>
-      </c>
-      <c r="H147" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I147" t="s">
         <v>54</v>
@@ -4961,7 +4940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" x14ac:dyDescent="0.25" spans="1:9">
+    <row r="148" x14ac:dyDescent="0.25" spans="1:10">
       <c r="A148" t="s">
         <v>71</v>
       </c>
@@ -4969,225 +4948,249 @@
         <v>72</v>
       </c>
       <c r="C148" t="s">
+        <v>79</v>
+      </c>
+      <c r="D148" t="s">
+        <v>80</v>
+      </c>
+      <c r="E148" t="s">
         <v>75</v>
       </c>
-      <c r="D148" t="s">
+      <c r="F148" t="s">
         <v>76</v>
       </c>
-      <c r="E148" t="s">
+      <c r="G148" t="s">
+        <v>101</v>
+      </c>
+      <c r="H148" t="s">
+        <v>102</v>
+      </c>
+      <c r="I148" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A149" t="s">
+        <v>71</v>
+      </c>
+      <c r="B149" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" t="s">
+        <v>79</v>
+      </c>
+      <c r="D149" t="s">
+        <v>80</v>
+      </c>
+      <c r="E149" t="s">
+        <v>89</v>
+      </c>
+      <c r="F149" t="s">
+        <v>90</v>
+      </c>
+      <c r="G149" t="s">
+        <v>101</v>
+      </c>
+      <c r="H149" t="s">
+        <v>102</v>
+      </c>
+      <c r="I149" t="s">
+        <v>55</v>
+      </c>
+      <c r="J149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A150" t="s">
+        <v>71</v>
+      </c>
+      <c r="B150" t="s">
+        <v>72</v>
+      </c>
+      <c r="C150" t="s">
+        <v>79</v>
+      </c>
+      <c r="D150" t="s">
+        <v>80</v>
+      </c>
+      <c r="E150" t="s">
+        <v>87</v>
+      </c>
+      <c r="F150" t="s">
+        <v>88</v>
+      </c>
+      <c r="G150" t="s">
+        <v>101</v>
+      </c>
+      <c r="H150" t="s">
+        <v>102</v>
+      </c>
+      <c r="I150" t="s">
+        <v>54</v>
+      </c>
+      <c r="J150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A151" t="s">
+        <v>71</v>
+      </c>
+      <c r="B151" t="s">
+        <v>72</v>
+      </c>
+      <c r="C151" t="s">
+        <v>79</v>
+      </c>
+      <c r="D151" t="s">
+        <v>80</v>
+      </c>
+      <c r="E151" t="s">
+        <v>83</v>
+      </c>
+      <c r="F151" t="s">
+        <v>84</v>
+      </c>
+      <c r="G151" t="s">
+        <v>101</v>
+      </c>
+      <c r="H151" t="s">
+        <v>102</v>
+      </c>
+      <c r="I151" t="s">
+        <v>47</v>
+      </c>
+      <c r="J151" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A152" t="s">
+        <v>71</v>
+      </c>
+      <c r="B152" t="s">
+        <v>72</v>
+      </c>
+      <c r="C152" t="s">
+        <v>79</v>
+      </c>
+      <c r="D152" t="s">
+        <v>80</v>
+      </c>
+      <c r="E152" t="s">
+        <v>77</v>
+      </c>
+      <c r="F152" t="s">
+        <v>78</v>
+      </c>
+      <c r="G152" t="s">
+        <v>101</v>
+      </c>
+      <c r="H152" t="s">
+        <v>102</v>
+      </c>
+      <c r="I152" t="s">
+        <v>49</v>
+      </c>
+      <c r="J152" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A153" t="s">
+        <v>71</v>
+      </c>
+      <c r="B153" t="s">
+        <v>72</v>
+      </c>
+      <c r="C153" t="s">
+        <v>79</v>
+      </c>
+      <c r="D153" t="s">
+        <v>80</v>
+      </c>
+      <c r="E153" t="s">
+        <v>85</v>
+      </c>
+      <c r="F153" t="s">
+        <v>86</v>
+      </c>
+      <c r="G153" t="s">
+        <v>101</v>
+      </c>
+      <c r="H153" t="s">
+        <v>102</v>
+      </c>
+      <c r="I153" t="s">
+        <v>37</v>
+      </c>
+      <c r="J153" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A154" t="s">
+        <v>71</v>
+      </c>
+      <c r="B154" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" t="s">
+        <v>79</v>
+      </c>
+      <c r="D154" t="s">
+        <v>80</v>
+      </c>
+      <c r="E154" t="s">
+        <v>81</v>
+      </c>
+      <c r="F154" t="s">
+        <v>82</v>
+      </c>
+      <c r="G154" t="s">
+        <v>101</v>
+      </c>
+      <c r="H154" t="s">
+        <v>102</v>
+      </c>
+      <c r="I154" t="s">
+        <v>40</v>
+      </c>
+      <c r="J154" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A155" t="s">
+        <v>71</v>
+      </c>
+      <c r="B155" t="s">
+        <v>72</v>
+      </c>
+      <c r="C155" t="s">
+        <v>79</v>
+      </c>
+      <c r="D155" t="s">
+        <v>80</v>
+      </c>
+      <c r="E155" t="s">
         <v>73</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F155" t="s">
         <v>74</v>
       </c>
-      <c r="G148" t="s">
-        <v>103</v>
-      </c>
-      <c r="I148" t="s">
-        <v>55</v>
-      </c>
-      <c r="J148" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A149" t="s">
-        <v>71</v>
-      </c>
-      <c r="B149" t="s">
-        <v>72</v>
-      </c>
-      <c r="C149" t="s">
-        <v>75</v>
-      </c>
-      <c r="D149" t="s">
-        <v>76</v>
-      </c>
-      <c r="E149" t="s">
-        <v>81</v>
-      </c>
-      <c r="F149" t="s">
-        <v>82</v>
-      </c>
-      <c r="G149" t="s">
-        <v>103</v>
-      </c>
-      <c r="I149" t="s">
-        <v>47</v>
-      </c>
-      <c r="J149" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A150" t="s">
-        <v>71</v>
-      </c>
-      <c r="B150" t="s">
-        <v>72</v>
-      </c>
-      <c r="C150" t="s">
-        <v>75</v>
-      </c>
-      <c r="D150" t="s">
-        <v>76</v>
-      </c>
-      <c r="E150" t="s">
-        <v>89</v>
-      </c>
-      <c r="F150" t="s">
-        <v>90</v>
-      </c>
-      <c r="G150" t="s">
-        <v>103</v>
-      </c>
-      <c r="I150" t="s">
-        <v>22</v>
-      </c>
-      <c r="J150" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A151" t="s">
-        <v>71</v>
-      </c>
-      <c r="B151" t="s">
-        <v>72</v>
-      </c>
-      <c r="C151" t="s">
-        <v>75</v>
-      </c>
-      <c r="D151" t="s">
-        <v>76</v>
-      </c>
-      <c r="E151" t="s">
-        <v>87</v>
-      </c>
-      <c r="F151" t="s">
-        <v>88</v>
-      </c>
-      <c r="G151" t="s">
-        <v>103</v>
-      </c>
-      <c r="I151" t="s">
-        <v>48</v>
-      </c>
-      <c r="J151" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A152" t="s">
-        <v>71</v>
-      </c>
-      <c r="B152" t="s">
-        <v>72</v>
-      </c>
-      <c r="C152" t="s">
-        <v>75</v>
-      </c>
-      <c r="D152" t="s">
-        <v>76</v>
-      </c>
-      <c r="E152" t="s">
-        <v>85</v>
-      </c>
-      <c r="F152" t="s">
-        <v>86</v>
-      </c>
-      <c r="G152" t="s">
-        <v>103</v>
-      </c>
-      <c r="I152" t="s">
-        <v>54</v>
-      </c>
-      <c r="J152" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A153" t="s">
-        <v>71</v>
-      </c>
-      <c r="B153" t="s">
-        <v>72</v>
-      </c>
-      <c r="C153" t="s">
-        <v>75</v>
-      </c>
-      <c r="D153" t="s">
-        <v>76</v>
-      </c>
-      <c r="E153" t="s">
-        <v>83</v>
-      </c>
-      <c r="F153" t="s">
-        <v>84</v>
-      </c>
-      <c r="G153" t="s">
-        <v>103</v>
-      </c>
-      <c r="I153" t="s">
-        <v>18</v>
-      </c>
-      <c r="J153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A154" t="s">
-        <v>71</v>
-      </c>
-      <c r="B154" t="s">
-        <v>72</v>
-      </c>
-      <c r="C154" t="s">
-        <v>75</v>
-      </c>
-      <c r="D154" t="s">
-        <v>76</v>
-      </c>
-      <c r="E154" t="s">
-        <v>79</v>
-      </c>
-      <c r="F154" t="s">
-        <v>80</v>
-      </c>
-      <c r="G154" t="s">
-        <v>103</v>
-      </c>
-      <c r="I154" t="s">
+      <c r="G155" t="s">
+        <v>101</v>
+      </c>
+      <c r="H155" t="s">
+        <v>102</v>
+      </c>
+      <c r="I155" t="s">
         <v>25</v>
-      </c>
-      <c r="J154" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A155" t="s">
-        <v>71</v>
-      </c>
-      <c r="B155" t="s">
-        <v>72</v>
-      </c>
-      <c r="C155" t="s">
-        <v>75</v>
-      </c>
-      <c r="D155" t="s">
-        <v>76</v>
-      </c>
-      <c r="E155" t="s">
-        <v>91</v>
-      </c>
-      <c r="F155" t="s">
-        <v>92</v>
-      </c>
-      <c r="G155" t="s">
-        <v>103</v>
-      </c>
-      <c r="I155" t="s">
-        <v>46</v>
       </c>
       <c r="J155" t="s">
         <v>19</v>
@@ -5201,25 +5204,25 @@
         <v>72</v>
       </c>
       <c r="C156" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D156" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E156" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F156" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="H156" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I156" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J156" t="s">
         <v>19</v>
@@ -5233,25 +5236,25 @@
         <v>72</v>
       </c>
       <c r="C157" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D157" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E157" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F157" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G157" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="H157" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I157" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J157" t="s">
         <v>19</v>
@@ -5265,25 +5268,25 @@
         <v>72</v>
       </c>
       <c r="C158" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D158" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E158" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F158" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G158" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="H158" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I158" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J158" t="s">
         <v>19</v>
@@ -5297,25 +5300,25 @@
         <v>72</v>
       </c>
       <c r="C159" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D159" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E159" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F159" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G159" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="H159" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I159" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J159" t="s">
         <v>19</v>
@@ -5329,25 +5332,25 @@
         <v>72</v>
       </c>
       <c r="C160" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D160" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E160" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F160" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G160" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="H160" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I160" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J160" t="s">
         <v>19</v>
@@ -5361,25 +5364,25 @@
         <v>72</v>
       </c>
       <c r="C161" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D161" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E161" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F161" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G161" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="H161" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I161" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="J161" t="s">
         <v>19</v>
@@ -5393,25 +5396,25 @@
         <v>72</v>
       </c>
       <c r="C162" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D162" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E162" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F162" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G162" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="H162" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I162" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J162" t="s">
         <v>19</v>
@@ -5425,25 +5428,25 @@
         <v>72</v>
       </c>
       <c r="C163" t="s">
+        <v>89</v>
+      </c>
+      <c r="D163" t="s">
+        <v>90</v>
+      </c>
+      <c r="E163" t="s">
         <v>81</v>
       </c>
-      <c r="D163" t="s">
+      <c r="F163" t="s">
         <v>82</v>
       </c>
-      <c r="E163" t="s">
-        <v>79</v>
-      </c>
-      <c r="F163" t="s">
-        <v>80</v>
-      </c>
       <c r="G163" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="H163" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J163" t="s">
         <v>19</v>
